--- a/baza szablon.xlsx
+++ b/baza szablon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kurs\Catering-spring-boot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kurs\Catering2-spring-boot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6418D26C-440B-4FF2-B769-979C2E13E0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C1B915-6C7F-47B1-8C23-4A97A1F13B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
   <si>
     <t>users</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>active</t>
-  </si>
-  <si>
-    <t>meals</t>
   </si>
   <si>
     <t>meal_no</t>
@@ -770,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -1220,13 +1217,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9FDC2F-4624-4A0B-BA2B-0622E113C07F}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
@@ -1234,21 +1231,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>82</v>
-      </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1256,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="11">
         <v>7.1</v>
@@ -1270,7 +1267,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="11">
         <v>14.1</v>
@@ -1284,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="11">
         <v>14.1</v>
@@ -1298,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="11">
         <v>18.100000000000001</v>
@@ -1312,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="11">
         <v>18.100000000000001</v>
@@ -1326,7 +1323,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="11">
         <v>18.100000000000001</v>
@@ -1340,7 +1337,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="11">
         <v>0</v>
@@ -1354,7 +1351,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="11">
         <v>14.2</v>
@@ -1368,7 +1365,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="11">
         <v>14.2</v>
@@ -1382,7 +1379,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="11">
         <v>14.2</v>
@@ -1396,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" s="11">
         <v>18.2</v>
@@ -1410,7 +1407,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="11">
         <v>18.2</v>
@@ -1424,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="11">
         <v>18.2</v>
@@ -1438,7 +1435,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="11">
         <v>0</v>
@@ -1452,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="11">
         <v>14.3</v>
@@ -1466,7 +1463,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="11">
         <v>14.3</v>
@@ -1480,7 +1477,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="11">
         <v>14.3</v>
@@ -1494,7 +1491,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="11">
         <v>18.3</v>
@@ -1508,7 +1505,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="11">
         <v>18.3</v>
@@ -1522,7 +1519,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="11">
         <v>18.3</v>
@@ -1536,7 +1533,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="11">
         <v>0</v>
@@ -1550,7 +1547,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="11">
         <v>7.4</v>
@@ -1564,7 +1561,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="11">
         <v>14.4</v>
@@ -1578,7 +1575,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="11">
         <v>14.4</v>
@@ -1592,7 +1589,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="11">
         <v>18.399999999999999</v>
@@ -1606,7 +1603,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C28" s="11">
         <v>18.399999999999999</v>
@@ -1620,7 +1617,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="11">
         <v>18.399999999999999</v>
@@ -1634,7 +1631,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="11">
         <v>0</v>
@@ -1648,7 +1645,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" s="11">
         <v>7.4</v>
@@ -1662,7 +1659,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" s="11">
         <v>14.4</v>
@@ -1676,7 +1673,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="11">
         <v>14.4</v>
@@ -1690,7 +1687,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" s="11">
         <v>18.399999999999999</v>
@@ -1704,7 +1701,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" s="11">
         <v>18.399999999999999</v>
@@ -1718,7 +1715,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="11">
         <v>18.399999999999999</v>
@@ -1732,7 +1729,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="11">
         <v>0</v>

--- a/baza szablon.xlsx
+++ b/baza szablon.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kurs\Catering2-spring-boot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C1B915-6C7F-47B1-8C23-4A97A1F13B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E800F07-9978-41DD-98D5-2D826D52FC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="departments" sheetId="4" r:id="rId2"/>
-    <sheet name="users" sheetId="3" r:id="rId3"/>
-    <sheet name="meals" sheetId="2" r:id="rId4"/>
+    <sheet name="new_orders" sheetId="6" r:id="rId1"/>
+    <sheet name="actual_order" sheetId="1" r:id="rId2"/>
+    <sheet name="departments" sheetId="4" r:id="rId3"/>
+    <sheet name="users" sheetId="3" r:id="rId4"/>
+    <sheet name="new_menu" sheetId="2" r:id="rId5"/>
+    <sheet name="order_menu" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
   <si>
     <t>users</t>
   </si>
@@ -63,9 +65,6 @@
     <t>super_admin</t>
   </si>
   <si>
-    <t>orders</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -78,9 +77,6 @@
     <t>new_menu</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>user_meal_mon</t>
   </si>
   <si>
@@ -225,57 +221,6 @@
     <t>Lakiernia</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>u_orders</t>
-  </si>
-  <si>
-    <t>meal1</t>
-  </si>
-  <si>
-    <t>price_meal1</t>
-  </si>
-  <si>
-    <t>meal2</t>
-  </si>
-  <si>
-    <t>price_meal2</t>
-  </si>
-  <si>
-    <t>meal3</t>
-  </si>
-  <si>
-    <t>price_meal3</t>
-  </si>
-  <si>
-    <t>meal4</t>
-  </si>
-  <si>
-    <t>price_meal4</t>
-  </si>
-  <si>
-    <t>meal5</t>
-  </si>
-  <si>
-    <t>price_meal5</t>
-  </si>
-  <si>
-    <t>meal6</t>
-  </si>
-  <si>
-    <t>price_meal6</t>
-  </si>
-  <si>
-    <t>meal7</t>
-  </si>
-  <si>
-    <t>price_meal7</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
@@ -382,6 +327,61 @@
   </si>
   <si>
     <t>Szaszłyk drobiowy z warzywami , mix sałat , sos + ryż brązowy + zestaw surówek</t>
+  </si>
+  <si>
+    <t>Strona / formularz</t>
+  </si>
+  <si>
+    <t>DODAJ danie</t>
+  </si>
+  <si>
+    <t>norder_menu</t>
+  </si>
+  <si>
+    <t>Lista tworzona poczatkiem tygodnia po otrzymaniu info z cateringu wyświetlająca na stronie głównej dania na przyszły tydzień.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista utworzona odgórnie, użytkownik dostaje login i hasło pozwalające na zamówienie dania, </t>
+  </si>
+  <si>
+    <t>Formularz tworzenie użytkownika</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>Prosty formularz dodawania i edycji działów w firmie - dot. Dofinansowania do obiadów</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>new_orders</t>
+  </si>
+  <si>
+    <t>actual_orders</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>Bez formularza - piątek po południu lista z new_menu trafia do order_menu
+Służy do podlinkowania nazw dań w bierzącym tygodniu</t>
+  </si>
+  <si>
+    <t>uniq</t>
+  </si>
+  <si>
+    <t>BigInteger</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>new_menu(meal_no)</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -485,6 +485,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -764,16 +770,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334E1041-AE06-43F3-9298-682BE303A38D}">
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
@@ -790,273 +943,105 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D16" s="6" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D17" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" t="s">
-        <v>73</v>
-      </c>
-      <c r="M22" t="s">
-        <v>74</v>
-      </c>
-      <c r="N22" t="s">
-        <v>75</v>
-      </c>
-      <c r="O22" t="s">
-        <v>76</v>
-      </c>
-      <c r="P22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1080,81 +1065,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041EA26D-14B9-4C38-A92F-7C02FABC4249}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>50</v>
       </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:F8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083DE24-7E06-4AE9-B8F2-7E6D8C2DD2F5}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1162,19 +1189,20 @@
     <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1185,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -1197,28 +1225,93 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J4" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J4:J8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9FDC2F-4624-4A0B-BA2B-0622E113C07F}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,33 +1320,38 @@
     <col min="2" max="2" width="97.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="54" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C3" s="11">
         <v>7.1</v>
@@ -1261,13 +1359,16 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I3" s="13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11">
         <v>14.1</v>
@@ -1275,13 +1376,14 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C5" s="11">
         <v>14.1</v>
@@ -1289,13 +1391,14 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C6" s="11">
         <v>18.100000000000001</v>
@@ -1303,13 +1406,14 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C7" s="11">
         <v>18.100000000000001</v>
@@ -1317,13 +1421,14 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C8" s="11">
         <v>18.100000000000001</v>
@@ -1332,12 +1437,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C9" s="11">
         <v>0</v>
@@ -1345,13 +1450,16 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C10" s="11">
         <v>14.2</v>
@@ -1360,12 +1468,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C11" s="11">
         <v>14.2</v>
@@ -1373,13 +1481,28 @@
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C12" s="11">
         <v>14.2</v>
@@ -1388,12 +1511,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C13" s="11">
         <v>18.2</v>
@@ -1402,12 +1525,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C14" s="11">
         <v>18.2</v>
@@ -1416,12 +1539,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C15" s="11">
         <v>18.2</v>
@@ -1430,12 +1553,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C16" s="11">
         <v>0</v>
@@ -1449,7 +1572,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C17" s="11">
         <v>14.3</v>
@@ -1463,7 +1586,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C18" s="11">
         <v>14.3</v>
@@ -1477,7 +1600,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C19" s="11">
         <v>14.3</v>
@@ -1491,7 +1614,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C20" s="11">
         <v>18.3</v>
@@ -1505,7 +1628,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C21" s="11">
         <v>18.3</v>
@@ -1519,7 +1642,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C22" s="11">
         <v>18.3</v>
@@ -1533,7 +1656,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C23" s="11">
         <v>0</v>
@@ -1547,7 +1670,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C24" s="11">
         <v>7.4</v>
@@ -1561,7 +1684,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C25" s="11">
         <v>14.4</v>
@@ -1575,7 +1698,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C26" s="11">
         <v>14.4</v>
@@ -1589,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C27" s="11">
         <v>18.399999999999999</v>
@@ -1603,7 +1726,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C28" s="11">
         <v>18.399999999999999</v>
@@ -1617,7 +1740,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C29" s="11">
         <v>18.399999999999999</v>
@@ -1631,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C30" s="11">
         <v>0</v>
@@ -1645,7 +1768,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C31" s="11">
         <v>7.4</v>
@@ -1659,7 +1782,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C32" s="11">
         <v>14.4</v>
@@ -1673,7 +1796,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C33" s="11">
         <v>14.4</v>
@@ -1687,7 +1810,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C34" s="11">
         <v>18.399999999999999</v>
@@ -1701,7 +1824,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C35" s="11">
         <v>18.399999999999999</v>
@@ -1715,7 +1838,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C36" s="11">
         <v>18.399999999999999</v>
@@ -1729,7 +1852,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C37" s="11">
         <v>0</v>
@@ -1739,6 +1862,548 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I3:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C5F857-50E9-440F-8174-DB146802B469}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="73.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="11">
+        <v>7.1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="11">
+        <v>14.1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="11">
+        <v>14.1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="11">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="11">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="11">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="11">
+        <v>14.2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="11">
+        <v>14.2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="11">
+        <v>14.2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="11">
+        <v>18.2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="11">
+        <v>18.2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="11">
+        <v>18.2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="11">
+        <v>14.3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="11">
+        <v>14.3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="11">
+        <v>14.3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="11">
+        <v>18.3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="11">
+        <v>18.3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="11">
+        <v>18.3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="11">
+        <v>7.4</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="11">
+        <v>14.4</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="11">
+        <v>14.4</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="11">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="11">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="11">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="11">
+        <v>7.4</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="11">
+        <v>14.4</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="11">
+        <v>14.4</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="11">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="11">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="11">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:F5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>